--- a/src/Results.xlsx
+++ b/src/Results.xlsx
@@ -25,7 +25,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -38,8 +38,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -75,217 +81,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -301,18 +158,202 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -420,18 +461,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:I14" headerRowCount="1" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:I14" headerRowCount="1" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:I14"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Nº de iteraciones" dataDxfId="8"/>
-    <tableColumn id="2" name="Alpha" dataDxfId="7"/>
-    <tableColumn id="3" name="Beta" dataDxfId="6"/>
-    <tableColumn id="4" name="Tipo de VNS" dataDxfId="5"/>
-    <tableColumn id="5" name="Nº Rutas inicial" dataDxfId="4"/>
-    <tableColumn id="6" name="Nº de rutas final" dataDxfId="3"/>
-    <tableColumn id="7" name="Fitness inicial" dataDxfId="2"/>
-    <tableColumn id="8" name="Fitnes final" dataDxfId="1"/>
-    <tableColumn id="9" name="Exe time" dataDxfId="0"/>
+    <tableColumn id="1" name="Nº de iteraciones" dataDxfId="10"/>
+    <tableColumn id="2" name="Alpha" dataDxfId="9"/>
+    <tableColumn id="3" name="Beta" dataDxfId="8"/>
+    <tableColumn id="4" name="Tipo de VNS" dataDxfId="7"/>
+    <tableColumn id="5" name="Nº Rutas inicial" dataDxfId="6"/>
+    <tableColumn id="6" name="Nº de rutas final" dataDxfId="5"/>
+    <tableColumn id="7" name="Fitness inicial" dataDxfId="4"/>
+    <tableColumn id="8" name="Fitness final" dataDxfId="3"/>
+    <tableColumn id="9" name="Exe time" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -738,18 +779,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col width="22.7109375" customWidth="1" min="1" max="1"/>
     <col width="14.140625" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="25.140625" customWidth="1" min="4" max="4"/>
+    <col width="29.140625" customWidth="1" min="3" max="3"/>
+    <col width="31" customWidth="1" min="4" max="4"/>
     <col width="16.5703125" customWidth="1" min="5" max="5"/>
     <col width="17.5703125" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
@@ -794,7 +835,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Fitnes final</t>
+          <t>Fitness final</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -1331,42 +1372,364 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="B19" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="B19" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>intercambio e insercción</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="2" t="n">
         <v>66.37976002678646</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="2" t="n">
         <v>26.1728510797702</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="2" t="n">
         <v>160.3463704586029</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>intercambio e insercción</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>66.0963526359527</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>25.54937319187778</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>211.9855632781982</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>intercambio e insercción a la vez</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>61.6098617693013</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>20.77220884126079</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>620.0740897655487</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>intercambio e insercción a la vez</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>66.487775264649</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>16.86878570659744</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>3022.578818559647</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Nueva estrategia</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="n"/>
+      <c r="D23" s="4" t="n"/>
+      <c r="E23" s="4" t="n"/>
+      <c r="F23" s="4" t="n"/>
+      <c r="G23" s="4" t="n"/>
+      <c r="H23" s="4" t="n"/>
+      <c r="I23" s="5" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>67.19763305883986</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>30.4897761474249</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>41.8565948009491</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>61.85330477259748</v>
+      </c>
+      <c r="H25" t="n">
+        <v>31.0928345271949</v>
+      </c>
+      <c r="I25" t="n">
+        <v>46.32653212547302</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>50</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>60.95511453857046</v>
+      </c>
+      <c r="H26" t="n">
+        <v>27.84751432550143</v>
+      </c>
+      <c r="I26" t="n">
+        <v>366.5747976303101</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>100</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>65.61650589108933</v>
+      </c>
+      <c r="H27" t="n">
+        <v>30.55671228017047</v>
+      </c>
+      <c r="I27" t="n">
+        <v>799.9186806678772</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SWAP and INSERT in VND</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>66.2405457666032</v>
+      </c>
+      <c r="H28" t="n">
+        <v>26.34422294321664</v>
+      </c>
+      <c r="I28" t="n">
+        <v>54.41920828819275</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SWAP and INSERT in VND</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>74.77128467817002</v>
+      </c>
+      <c r="H29" t="n">
+        <v>25.11640066109975</v>
+      </c>
+      <c r="I29" t="n">
+        <v>69.97927808761597</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>17</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SWAP and INSERT in VND</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>69.31454898848553</v>
+      </c>
+      <c r="H30" t="n">
+        <v>30.17327710570429</v>
+      </c>
+      <c r="I30" t="n">
+        <v>39.12623620033264</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:I18">
-    <cfRule type="expression" priority="1" dxfId="10">
+  <mergeCells count="1">
+    <mergeCell ref="A23:I23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:I22">
+    <cfRule type="expression" priority="1" dxfId="1" stopIfTrue="1">
       <formula>$F2&gt;10</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="9">
+    <cfRule type="expression" priority="3" dxfId="0" stopIfTrue="1">
       <formula>$F2&lt;=10</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/Results.xlsx
+++ b/src/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Universidad\TFG\VNS\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB5D876-642D-4A54-A3BC-525A513FE4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B2082C-4F05-40F0-B35D-C01ED06B4FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Nº de iteraciones</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Alternative (TripleSwap)</t>
   </si>
   <si>
+    <t>DoubleSwap and Insert - Random</t>
+  </si>
+  <si>
     <t>Swap, DoubleSwap and Insert</t>
   </si>
   <si>
@@ -85,7 +88,16 @@
     <t>SWAP, INSERT and DoubleSwap - Random</t>
   </si>
   <si>
-    <t>DoubleSwap and Insert - Random</t>
+    <t>SWAP and INSERT - Random (test)</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Aprox 6h. No DoubleSwap</t>
+  </si>
+  <si>
+    <t>Casi 8h. Todo SWAP</t>
   </si>
 </sst>
 </file>
@@ -168,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -177,11 +189,35 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -451,19 +487,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:J29" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A1:J29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nº de iteraciones" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Alpha" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beta" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tipo de VNS" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nº Rutas inicial" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nº de rutas final" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Fitness inicial" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fitness final" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Exe time  (s)" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Nº de clientes" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:K31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nº de iteraciones" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Alpha" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beta" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tipo de VNS" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nº Rutas inicial" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nº de rutas final" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Fitness inicial" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fitness final" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Exe time  (s)" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Nº de clientes" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{332CE2AE-A7CF-480C-A3A7-383E425AD1AE}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -766,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,9 +821,10 @@
     <col min="8" max="8" width="20.28515625" style="7" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="7" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,8 +855,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>17</v>
       </c>
@@ -849,8 +890,9 @@
       <c r="J2" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>25</v>
       </c>
@@ -881,8 +923,9 @@
       <c r="J3" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>24</v>
       </c>
@@ -913,8 +956,9 @@
       <c r="J4" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>9</v>
       </c>
@@ -925,7 +969,7 @@
         <v>0.2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
@@ -945,8 +989,9 @@
       <c r="J5" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -957,7 +1002,7 @@
         <v>0.2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -977,8 +1022,9 @@
       <c r="J6" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -989,7 +1035,7 @@
         <v>0.2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -1009,8 +1055,9 @@
       <c r="J7" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1021,8 +1068,9 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1033,8 +1081,9 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1045,8 +1094,9 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1057,8 +1107,9 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>17</v>
       </c>
@@ -1069,7 +1120,7 @@
         <v>0.2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2">
         <v>7</v>
@@ -1089,8 +1140,9 @@
       <c r="J12" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>17</v>
       </c>
@@ -1101,7 +1153,7 @@
         <v>0.2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2">
         <v>6</v>
@@ -1121,8 +1173,9 @@
       <c r="J13" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>18</v>
       </c>
@@ -1133,7 +1186,7 @@
         <v>0.2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2">
         <v>6</v>
@@ -1153,8 +1206,9 @@
       <c r="J14" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -1165,7 +1219,7 @@
         <v>0.2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
         <v>7</v>
@@ -1185,8 +1239,9 @@
       <c r="J15" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>8</v>
       </c>
@@ -1197,7 +1252,7 @@
         <v>0.2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
         <v>6</v>
@@ -1217,8 +1272,9 @@
       <c r="J16" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -1229,7 +1285,7 @@
         <v>0.2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2">
         <v>6</v>
@@ -1249,8 +1305,9 @@
       <c r="J17" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>26</v>
       </c>
@@ -1261,7 +1318,7 @@
         <v>0.2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2">
         <v>6</v>
@@ -1281,8 +1338,9 @@
       <c r="J18" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>11</v>
       </c>
@@ -1293,7 +1351,7 @@
         <v>0.2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2">
         <v>9</v>
@@ -1313,8 +1371,9 @@
       <c r="J19" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -1325,7 +1384,7 @@
         <v>0.2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2">
         <v>7</v>
@@ -1345,8 +1404,9 @@
       <c r="J20" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1357,7 +1417,7 @@
         <v>0.2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" s="2">
         <v>7</v>
@@ -1377,8 +1437,9 @@
       <c r="J21" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1389,7 +1450,7 @@
         <v>0.2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2">
         <v>5</v>
@@ -1409,8 +1470,9 @@
       <c r="J22" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1421,7 +1483,7 @@
         <v>0.2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" s="2">
         <v>7</v>
@@ -1441,8 +1503,9 @@
       <c r="J23" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>16</v>
       </c>
@@ -1453,7 +1516,7 @@
         <v>0.2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2">
         <v>8</v>
@@ -1473,8 +1536,9 @@
       <c r="J24" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>90</v>
       </c>
@@ -1485,7 +1549,7 @@
         <v>0.2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" s="3">
         <v>26</v>
@@ -1505,8 +1569,11 @@
       <c r="J25" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>16</v>
       </c>
@@ -1517,7 +1584,7 @@
         <v>0.2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" s="3">
         <v>8</v>
@@ -1537,8 +1604,9 @@
       <c r="J26" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>15</v>
       </c>
@@ -1569,8 +1637,9 @@
       <c r="J27" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>19</v>
       </c>
@@ -1581,7 +1650,7 @@
         <v>0.2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2">
         <v>5</v>
@@ -1601,8 +1670,9 @@
       <c r="J28" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>5</v>
       </c>
@@ -1613,7 +1683,7 @@
         <v>0.2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E29" s="3">
         <v>5</v>
@@ -1633,21 +1703,88 @@
       <c r="J29" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5">
+        <v>70.837474911740756</v>
+      </c>
+      <c r="H30" s="5">
+        <v>27.84864222390128</v>
+      </c>
+      <c r="I30" s="5">
+        <v>54.918659925460823</v>
+      </c>
+      <c r="J30" s="2">
+        <v>20</v>
+      </c>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>537</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="3">
+        <v>27</v>
+      </c>
+      <c r="F31" s="3">
+        <v>7</v>
+      </c>
+      <c r="G31" s="6">
+        <v>63.171915253635987</v>
+      </c>
+      <c r="H31" s="6">
+        <v>18.305919337507341</v>
+      </c>
+      <c r="I31" s="6">
+        <v>28383.628776788712</v>
+      </c>
+      <c r="J31" s="3">
+        <v>100</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H35"/>
+      <c r="I35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Results.xlsx
+++ b/src/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Universidad\TFG\VNS\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B2082C-4F05-40F0-B35D-C01ED06B4FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1432E441-E105-4F11-A802-2FA8F3BE4CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Nº de iteraciones</t>
   </si>
@@ -52,6 +52,15 @@
     <t>Nº de clientes</t>
   </si>
   <si>
+    <t>CountSwap</t>
+  </si>
+  <si>
+    <t>CountInsert</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>SWAP and INSERT - Random</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>Swap, Insert and DoubleSwap - Kmeans</t>
   </si>
   <si>
+    <t>Aprox 6h. No DoubleSwap</t>
+  </si>
+  <si>
     <t>Swap and Insert - Kmeans</t>
   </si>
   <si>
@@ -91,13 +103,10 @@
     <t>SWAP and INSERT - Random (test)</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Aprox 6h. No DoubleSwap</t>
-  </si>
-  <si>
     <t>Casi 8h. Todo SWAP</t>
+  </si>
+  <si>
+    <t>SWAP and INSERT - Kmeans</t>
   </si>
 </sst>
 </file>
@@ -194,7 +203,53 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <border>
@@ -487,20 +542,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:K31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nº de iteraciones" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Alpha" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beta" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tipo de VNS" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nº Rutas inicial" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nº de rutas final" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Fitness inicial" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fitness final" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Exe time  (s)" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Nº de clientes" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{332CE2AE-A7CF-480C-A3A7-383E425AD1AE}" name="Comments" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:M35" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="A1:M35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nº de iteraciones" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Alpha" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beta" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tipo de VNS" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nº Rutas inicial" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nº de rutas final" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Fitness inicial" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fitness final" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Exe time  (s)" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Nº de clientes" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="CountSwap" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="CountInsert" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -803,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,10 +878,12 @@
     <col min="8" max="8" width="20.28515625" style="7" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="7" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="35.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,10 +915,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>17</v>
       </c>
@@ -870,7 +935,7 @@
         <v>0.2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2">
         <v>5</v>
@@ -891,8 +956,10 @@
         <v>20</v>
       </c>
       <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>25</v>
       </c>
@@ -903,7 +970,7 @@
         <v>0.2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>7</v>
@@ -924,8 +991,10 @@
         <v>20</v>
       </c>
       <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>24</v>
       </c>
@@ -936,7 +1005,7 @@
         <v>0.2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
@@ -957,8 +1026,10 @@
         <v>20</v>
       </c>
       <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>9</v>
       </c>
@@ -969,7 +1040,7 @@
         <v>0.2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
@@ -990,8 +1061,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1002,7 +1075,7 @@
         <v>0.2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -1023,8 +1096,10 @@
         <v>20</v>
       </c>
       <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1035,7 +1110,7 @@
         <v>0.2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -1056,8 +1131,10 @@
         <v>20</v>
       </c>
       <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1069,8 +1146,10 @@
       <c r="I8" s="6"/>
       <c r="J8" s="3"/>
       <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1082,8 +1161,10 @@
       <c r="I9" s="6"/>
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1095,8 +1176,10 @@
       <c r="I10" s="5"/>
       <c r="J10" s="2"/>
       <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1108,8 +1191,10 @@
       <c r="I11" s="5"/>
       <c r="J11" s="2"/>
       <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>17</v>
       </c>
@@ -1120,7 +1205,7 @@
         <v>0.2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2">
         <v>7</v>
@@ -1141,8 +1226,10 @@
         <v>20</v>
       </c>
       <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>17</v>
       </c>
@@ -1153,7 +1240,7 @@
         <v>0.2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2">
         <v>6</v>
@@ -1174,8 +1261,10 @@
         <v>20</v>
       </c>
       <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>18</v>
       </c>
@@ -1186,7 +1275,7 @@
         <v>0.2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2">
         <v>6</v>
@@ -1207,8 +1296,10 @@
         <v>20</v>
       </c>
       <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -1219,7 +1310,7 @@
         <v>0.2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2">
         <v>7</v>
@@ -1240,8 +1331,10 @@
         <v>20</v>
       </c>
       <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>8</v>
       </c>
@@ -1252,7 +1345,7 @@
         <v>0.2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2">
         <v>6</v>
@@ -1273,8 +1366,10 @@
         <v>20</v>
       </c>
       <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -1285,7 +1380,7 @@
         <v>0.2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2">
         <v>6</v>
@@ -1306,8 +1401,10 @@
         <v>20</v>
       </c>
       <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>26</v>
       </c>
@@ -1318,7 +1415,7 @@
         <v>0.2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2">
         <v>6</v>
@@ -1339,8 +1436,10 @@
         <v>20</v>
       </c>
       <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>11</v>
       </c>
@@ -1351,7 +1450,7 @@
         <v>0.2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2">
         <v>9</v>
@@ -1372,8 +1471,10 @@
         <v>20</v>
       </c>
       <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -1384,7 +1485,7 @@
         <v>0.2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2">
         <v>7</v>
@@ -1405,8 +1506,10 @@
         <v>20</v>
       </c>
       <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1417,7 +1520,7 @@
         <v>0.2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2">
         <v>7</v>
@@ -1438,8 +1541,10 @@
         <v>20</v>
       </c>
       <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1450,7 +1555,7 @@
         <v>0.2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2">
         <v>5</v>
@@ -1471,8 +1576,10 @@
         <v>20</v>
       </c>
       <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1483,7 +1590,7 @@
         <v>0.2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2">
         <v>7</v>
@@ -1504,8 +1611,10 @@
         <v>20</v>
       </c>
       <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>16</v>
       </c>
@@ -1516,7 +1625,7 @@
         <v>0.2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E24" s="2">
         <v>8</v>
@@ -1537,8 +1646,10 @@
         <v>20</v>
       </c>
       <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>90</v>
       </c>
@@ -1549,7 +1660,7 @@
         <v>0.2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E25" s="3">
         <v>26</v>
@@ -1569,11 +1680,13 @@
       <c r="J25" s="3">
         <v>100</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>16</v>
       </c>
@@ -1584,7 +1697,7 @@
         <v>0.2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26" s="3">
         <v>8</v>
@@ -1605,8 +1718,10 @@
         <v>20</v>
       </c>
       <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>15</v>
       </c>
@@ -1617,7 +1732,7 @@
         <v>0.2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="3">
         <v>7</v>
@@ -1638,8 +1753,10 @@
         <v>20</v>
       </c>
       <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>19</v>
       </c>
@@ -1650,7 +1767,7 @@
         <v>0.2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E28" s="2">
         <v>5</v>
@@ -1671,8 +1788,10 @@
         <v>20</v>
       </c>
       <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>5</v>
       </c>
@@ -1683,7 +1802,7 @@
         <v>0.2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E29" s="3">
         <v>5</v>
@@ -1704,8 +1823,10 @@
         <v>20</v>
       </c>
       <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>62</v>
       </c>
@@ -1716,7 +1837,7 @@
         <v>0.2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2">
         <v>6</v>
@@ -1737,8 +1858,10 @@
         <v>20</v>
       </c>
       <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>537</v>
       </c>
@@ -1749,7 +1872,7 @@
         <v>0.2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E31" s="3">
         <v>27</v>
@@ -1769,22 +1892,159 @@
       <c r="J31" s="3">
         <v>100</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H35"/>
-      <c r="I35"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>78</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4</v>
+      </c>
+      <c r="G32" s="5">
+        <v>67.365534410668232</v>
+      </c>
+      <c r="H32" s="5">
+        <v>24.43026122330539</v>
+      </c>
+      <c r="I32" s="5">
+        <v>9.2115697860717773</v>
+      </c>
+      <c r="J32" s="2">
+        <v>20</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>42</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
+      <c r="G33" s="6">
+        <v>46.635499833319358</v>
+      </c>
+      <c r="H33" s="6">
+        <v>24.862995873108598</v>
+      </c>
+      <c r="I33" s="6">
+        <v>7.1604506969451904</v>
+      </c>
+      <c r="J33" s="3">
+        <v>20</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0.8</v>
+      </c>
+      <c r="C34">
+        <v>0.2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="3">
+        <v>8</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="6">
+        <v>46.635499833319358</v>
+      </c>
+      <c r="H34" s="6">
+        <v>24.862995873108598</v>
+      </c>
+      <c r="I34" s="6">
+        <v>16.997991800308231</v>
+      </c>
+      <c r="J34" s="3">
+        <v>20</v>
+      </c>
+      <c r="K34" s="6">
+        <v>42</v>
+      </c>
+      <c r="L34" s="6">
+        <v>1</v>
+      </c>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>42</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3</v>
+      </c>
+      <c r="G35" s="6">
+        <v>46.635499833319358</v>
+      </c>
+      <c r="H35" s="6">
+        <v>24.862995873108598</v>
+      </c>
+      <c r="I35" s="6">
+        <v>7.4534842967987061</v>
+      </c>
+      <c r="J35" s="3">
+        <v>20</v>
+      </c>
+      <c r="K35" s="6">
+        <v>42</v>
+      </c>
+      <c r="L35" s="6">
+        <v>1</v>
+      </c>
+      <c r="M35" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
